--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -4178,7 +4178,7 @@
         <f>HYPERLINK("[\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L3-帳務作業\LoanBorMain.xlsx]DBD!A1", "連結")</f>
         <v>連結</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <f>HYPERLINK("[\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L3-帳務作業\LoanBorTx.xlsx]DBD!A1", "連結")</f>
         <v>連結</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">會計銷帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月20日 11:49:02</t>
+    <t xml:space="preserve">2022年01月18日 15:11:21</t>
   </si>
   <si>
     <t xml:space="preserve">CdAcBook</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">客戶資料主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月12日 17:52:06</t>
+    <t xml:space="preserve">2022年01月19日 09:39:05</t>
   </si>
   <si>
     <t xml:space="preserve">CustNotice</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">客戶交互運用檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年05月03日 15:50:54</t>
+    <t xml:space="preserve">2022年01月20日 10:39:31</t>
   </si>
   <si>
     <t xml:space="preserve">CustFin</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">客戶資料主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月19日 09:39:05</t>
+    <t xml:space="preserve">2022年01月20日 10:39:54</t>
   </si>
   <si>
     <t xml:space="preserve">CustNotice</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">客戶聯絡電話檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月12日 17:31:36</t>
+    <t xml:space="preserve">2022年01月20日 10:18:49</t>
   </si>
   <si>
     <t xml:space="preserve">FinReportCashFlow</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">客戶財務報表.財報品質</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月06日 13:34:24</t>
+    <t xml:space="preserve">2022年01月20日 10:19:22</t>
   </si>
   <si>
     <t xml:space="preserve">FinReportRate</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">擔保品-建物修改原因檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年07月14日 16:59:12</t>
+    <t xml:space="preserve">2022年01月20日 10:22:23</t>
   </si>
   <si>
     <t xml:space="preserve">ClEva</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">擔保品不動產檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 10:56:27</t>
+    <t xml:space="preserve">2022年01月20日 10:23:13</t>
   </si>
   <si>
     <t xml:space="preserve">ClImmRankDetail</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">擔保品-土地所有權人檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月17日 14:06:21</t>
+    <t xml:space="preserve">2022年01月20日 10:24:19</t>
   </si>
   <si>
     <t xml:space="preserve">ClLandReason</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">擔保品-土地修改原因檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年04月23日 16:00:32</t>
+    <t xml:space="preserve">2022年01月20日 10:24:44</t>
   </si>
   <si>
     <t xml:space="preserve">ClMain</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">擔保品動產檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月17日 00:28:51</t>
+    <t xml:space="preserve">2022年01月20日 10:25:35</t>
   </si>
   <si>
     <t xml:space="preserve">ClNoMap</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">清償作業檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月22日 14:52:44</t>
+    <t xml:space="preserve">2022年01月20日 10:36:21</t>
   </si>
   <si>
     <t xml:space="preserve">FacMain</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">商品參數主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月01日 15:00:00</t>
+    <t xml:space="preserve">2022年01月20日 10:37:15</t>
   </si>
   <si>
     <t xml:space="preserve">FacProdAcctFee</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">商品參數副檔階梯式利率</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年12月11日 18:36:39</t>
+    <t xml:space="preserve">2022年01月20日 10:37:42</t>
   </si>
   <si>
     <t xml:space="preserve">FacRelation</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">法拍費用檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月10日 15:07:39</t>
+    <t xml:space="preserve">2022年01月20日 10:38:18</t>
   </si>
   <si>
     <t xml:space="preserve">ForeclosureFinished</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">借款戶關係人/關係企業主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月19日 12:43:12</t>
+    <t xml:space="preserve">2022年01月20日 10:38:57</t>
   </si>
   <si>
     <t xml:space="preserve">L3-帳務作業</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">放款約定還本檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月01日 10:59:17</t>
+    <t xml:space="preserve">2022年01月20日 10:39:16</t>
   </si>
   <si>
     <t xml:space="preserve">LoanBorMain</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">放款主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月14日 12:51:16</t>
+    <t xml:space="preserve">2022年01月20日 10:42:24</t>
   </si>
   <si>
     <t xml:space="preserve">LoanBorTx</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">放款交易內容檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月14日 11:45:40</t>
+    <t xml:space="preserve">2022年01月20日 10:43:18</t>
   </si>
   <si>
     <t xml:space="preserve">LoanCheque</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">支票檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月01日 14:40:38</t>
+    <t xml:space="preserve">2022年01月20日 10:44:03</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIntDetail</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">計息明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年09月29日 11:23:24</t>
+    <t xml:space="preserve">2022年01月20日 10:44:20</t>
   </si>
   <si>
     <t xml:space="preserve">LoanNotYet</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">未齊件管理檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月13日 17:05:09</t>
+    <t xml:space="preserve">2022年01月20日 10:44:37</t>
   </si>
   <si>
     <t xml:space="preserve">LoanOverdue</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">催收呆帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年04月28日 18:24:38</t>
+    <t xml:space="preserve">2022年01月20日 10:44:53</t>
   </si>
   <si>
     <t xml:space="preserve">LoanRateChange</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">放款利率變動檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月03日 12:15:38</t>
+    <t xml:space="preserve">2022年01月20日 10:45:09</t>
   </si>
   <si>
     <t xml:space="preserve">LoanSynd</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">ACH授權記錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月16日 15:19:52</t>
+    <t xml:space="preserve">2022年01月20日 10:48:13</t>
   </si>
   <si>
     <t xml:space="preserve">AchAuthLogHistory</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">ACH授權記錄歷史檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月16日 11:23:29</t>
+    <t xml:space="preserve">2022年01月20日 10:49:14</t>
   </si>
   <si>
     <t xml:space="preserve">AchDeductMedia</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">ACH扣款媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月05日 12:47:01</t>
+    <t xml:space="preserve">2022年01月20日 10:57:04</t>
   </si>
   <si>
     <t xml:space="preserve">BankAuthAct</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">銀扣授權帳號檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月09日 10:17:13</t>
+    <t xml:space="preserve">2022年01月20日 10:55:17</t>
   </si>
   <si>
     <t xml:space="preserve">BankDeductDtl</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">銀行扣款明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月19日 11:23:26</t>
+    <t xml:space="preserve">2022年01月20日 10:58:09</t>
   </si>
   <si>
     <t xml:space="preserve">BankRemit</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">撥款匯款檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月28日 11:52:15</t>
+    <t xml:space="preserve">2022年01月20日 10:59:19</t>
   </si>
   <si>
     <t xml:space="preserve">BankRmtf</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">匯款轉帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月29日 16:48:08</t>
+    <t xml:space="preserve">2022年01月20日 10:59:49</t>
   </si>
   <si>
     <t xml:space="preserve">BatxCheque</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">支票兌現檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月16日 19:06:16</t>
+    <t xml:space="preserve">2022年01月20日 11:00:17</t>
   </si>
   <si>
     <t xml:space="preserve">BatxDetail</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">整批入帳總數檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月02日 18:04:53</t>
+    <t xml:space="preserve">2022年01月20日 11:00:42</t>
   </si>
   <si>
     <t xml:space="preserve">BatxOthers</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">其他還款來源檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月06日 15:25:10</t>
+    <t xml:space="preserve">2022年01月20日 11:00:58</t>
   </si>
   <si>
     <t xml:space="preserve">BatxRateChange</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">整批利率調整檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月16日 16:25:48</t>
+    <t xml:space="preserve">2022年01月20日 11:01:44</t>
   </si>
   <si>
     <t xml:space="preserve">EmpDeductDtl</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">員工扣薪明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月01日 17:20:13</t>
+    <t xml:space="preserve">2022年01月20日 11:02:26</t>
   </si>
   <si>
     <t xml:space="preserve">EmpDeductMedia</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">員工扣薪媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月05日 17:28:39</t>
+    <t xml:space="preserve">2022年01月20日 11:03:12</t>
   </si>
   <si>
     <t xml:space="preserve">EmpDeductSchedule</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">火險初保檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月29日 11:01:15</t>
+    <t xml:space="preserve">2022年01月20日 11:03:31</t>
   </si>
   <si>
     <t xml:space="preserve">InsuRenew</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">火險單續保檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月29日 11:01:35</t>
+    <t xml:space="preserve">2022年01月20日 11:03:54</t>
   </si>
   <si>
     <t xml:space="preserve">InsuRenewMediaTemp</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">郵局授權記錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月27日 18:33:04</t>
+    <t xml:space="preserve">2022年01月20日 11:05:21</t>
   </si>
   <si>
     <t xml:space="preserve">PostAuthLogHistory</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">郵局授權記錄歷史檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月22日 10:47:38</t>
+    <t xml:space="preserve">2022年01月20日 11:06:26</t>
   </si>
   <si>
     <t xml:space="preserve">PostDeductMedia</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">郵局扣款媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月05日 12:47:06</t>
+    <t xml:space="preserve">2022年01月20日 11:07:17</t>
   </si>
   <si>
     <t xml:space="preserve">RepayActChangeLog</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">還款帳號變更(含還款方式)紀錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月16日 12:13:35</t>
+    <t xml:space="preserve">2022年01月20日 11:07:45</t>
   </si>
   <si>
     <t xml:space="preserve">L5-管理性作業</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">法催紀錄法務進度檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月22日 15:10:50</t>
+    <t xml:space="preserve">2022年01月20日 11:19:19</t>
   </si>
   <si>
     <t xml:space="preserve">CollLetter</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">法催紀錄清單檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月11日 17:21:03</t>
+    <t xml:space="preserve">2022年01月20日 11:20:01</t>
   </si>
   <si>
     <t xml:space="preserve">CollListTmp</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">法催紀錄提醒事項檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月28日 17:27:15</t>
+    <t xml:space="preserve">2022年01月20日 11:20:23</t>
   </si>
   <si>
     <t xml:space="preserve">CollTel</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">檔案借閱檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月12日 13:50:38</t>
+    <t xml:space="preserve">2022年01月20日 11:21:28</t>
   </si>
   <si>
     <t xml:space="preserve">InnFundApl</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">覆審案件明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月26日 15:06:38</t>
+    <t xml:space="preserve">2022年01月20日 11:22:18</t>
   </si>
   <si>
     <t xml:space="preserve">JcicAtomDetail</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">債務協商案件主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月21日 19:04:28</t>
+    <t xml:space="preserve">2022年01月20日 11:24:01</t>
   </si>
   <si>
     <t xml:space="preserve">NegQueryCust</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">債協客戶請求資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月08日 14:18:41</t>
+    <t xml:space="preserve">2022年01月20日 11:26:29</t>
   </si>
   <si>
     <t xml:space="preserve">NegTrans</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">房貸專員業績明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月18日 18:23:06</t>
+    <t xml:space="preserve">2022年01月20日 11:26:55</t>
   </si>
   <si>
     <t xml:space="preserve">PfBsDetailAdjust</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">協辦人員等級檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 16:04:37</t>
+    <t xml:space="preserve">2022年01月20日 11:27:22</t>
   </si>
   <si>
     <t xml:space="preserve">PfCoOfficerLog</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">業績計算明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月02日 19:04:53</t>
+    <t xml:space="preserve">2022年01月20日 11:28:00</t>
   </si>
   <si>
     <t xml:space="preserve">PfInsCheck</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">房貸獎勵保費檢核檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年05月03日 14:05:18</t>
+    <t xml:space="preserve">2022年01月20日 11:28:25</t>
   </si>
   <si>
     <t xml:space="preserve">PfIntranetAdjust</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">內網報表業績調整檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月16日 14:21:26</t>
+    <t xml:space="preserve">2022年01月20日 11:28:43</t>
   </si>
   <si>
     <t xml:space="preserve">PfItDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月16日 15:18:32</t>
+    <t xml:space="preserve">2022年01月20日 11:29:25</t>
   </si>
   <si>
     <t xml:space="preserve">PfItDetailAdjust</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">額度主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月08日 14:34:24</t>
+    <t xml:space="preserve">2022年01月20日 15:12:42</t>
   </si>
   <si>
     <t xml:space="preserve">FacProd</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">放款主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:42:24</t>
+    <t xml:space="preserve">2022年01月20日 15:56:01</t>
   </si>
   <si>
     <t xml:space="preserve">LoanBorTx</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">整批入帳明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月15日 10:43:33</t>
+    <t xml:space="preserve">2022年01月20日 15:11:20</t>
   </si>
   <si>
     <t xml:space="preserve">BatxHead</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">介紹、協辦獎金明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月23日 18:54:08</t>
+    <t xml:space="preserve">2022年01月20日 11:30:02</t>
   </si>
   <si>
     <t xml:space="preserve">PfRewardMedia</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">指定覆審名單檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月12日 14:24:18</t>
+    <t xml:space="preserve">2022年01月20日 11:30:34</t>
   </si>
   <si>
     <t xml:space="preserve">L6-共同作業</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">會計業務關帳控制檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月25日 11:09:14</t>
+    <t xml:space="preserve">2022年01月20日 11:31:18</t>
   </si>
   <si>
     <t xml:space="preserve">AcDetail</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">會計帳務明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月13日 12:37:21</t>
+    <t xml:space="preserve">2022年01月20日 11:32:37</t>
   </si>
   <si>
     <t xml:space="preserve">AcLoanInt</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">提息明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月29日 12:41:56</t>
+    <t xml:space="preserve">2022年01月20日 11:33:28</t>
   </si>
   <si>
     <t xml:space="preserve">AcLoanRenew</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">會計借新還舊檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年04月15日 18:23:59</t>
+    <t xml:space="preserve">2022年01月20日 11:33:45</t>
   </si>
   <si>
     <t xml:space="preserve">AcMain</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">會計總帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月14日 14:26:54</t>
+    <t xml:space="preserve">2022年01月20日 15:08:09</t>
   </si>
   <si>
     <t xml:space="preserve">AcReceivable</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">會計銷帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月18日 15:11:21</t>
+    <t xml:space="preserve">2022年01月20日 11:34:23</t>
   </si>
   <si>
     <t xml:space="preserve">CdAcBook</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">帳冊別金額設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月22日 09:32:57</t>
+    <t xml:space="preserve">2022年01月20日 11:34:41</t>
   </si>
   <si>
     <t xml:space="preserve">CdAcCode</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">會計科子細目設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月18日 14:57:24</t>
+    <t xml:space="preserve">2022年01月20日 11:35:08</t>
   </si>
   <si>
     <t xml:space="preserve">CdAoDept</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">縣市與鄉鎮區對照檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月01日 16:52:29</t>
+    <t xml:space="preserve">2022年01月20日 11:35:35</t>
   </si>
   <si>
     <t xml:space="preserve">CdBank</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">指標利率檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月27日 09:56:57</t>
+    <t xml:space="preserve">2022年01月20日 11:35:49</t>
   </si>
   <si>
     <t xml:space="preserve">CdBcm</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">介紹人加碼獎勵津貼標準設定</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月06日 14:50:06</t>
+    <t xml:space="preserve">2022年01月20日 11:36:03</t>
   </si>
   <si>
     <t xml:space="preserve">CdBonusCo</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">協辦獎勵津貼標準設定</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月13日 18:47:57</t>
+    <t xml:space="preserve">2022年01月20日 11:36:27</t>
   </si>
   <si>
     <t xml:space="preserve">CdBranch</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">營業單位資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月13日 18:39:29</t>
+    <t xml:space="preserve">2022年01月20日 11:36:39</t>
   </si>
   <si>
     <t xml:space="preserve">CdBranchGroup</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">建築造價參考檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月19日 17:55:07</t>
+    <t xml:space="preserve">2022年01月20日 11:36:58</t>
   </si>
   <si>
     <t xml:space="preserve">CdCashFlow</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">地區別代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月06日 18:03:18</t>
+    <t xml:space="preserve">2022年01月20日 11:37:14</t>
   </si>
   <si>
     <t xml:space="preserve">CdCl</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">擔保品代號檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月21日 15:52:19</t>
+    <t xml:space="preserve">2022年01月20日 11:37:40</t>
   </si>
   <si>
     <t xml:space="preserve">CdCode</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">共用代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月20日 16:12:18</t>
+    <t xml:space="preserve">2022年01月20日 11:38:01</t>
   </si>
   <si>
     <t xml:space="preserve">CdEmp</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">員工資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月13日 18:39:01</t>
+    <t xml:space="preserve">2022年01月20日 11:38:42</t>
   </si>
   <si>
     <t xml:space="preserve">CdGseq</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">編號編碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月10日 11:48:47</t>
+    <t xml:space="preserve">2022年01月20日 15:07:19</t>
   </si>
   <si>
     <t xml:space="preserve">CdGuarantor</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">保證人關係代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月20日 18:34:55</t>
+    <t xml:space="preserve">2022年01月20日 11:41:58</t>
   </si>
   <si>
     <t xml:space="preserve">CdIndustry</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">行業別代號檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月27日 11:04:46</t>
+    <t xml:space="preserve">2022年01月20日 11:42:29</t>
   </si>
   <si>
     <t xml:space="preserve">CdInsurer</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">保險公司資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月06日 11:58:48</t>
+    <t xml:space="preserve">2022年01月20日 11:42:41</t>
   </si>
   <si>
     <t xml:space="preserve">CdLandOffice</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">未齊件代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月25日 17:03:15</t>
+    <t xml:space="preserve">2022年01月20日 11:42:59</t>
   </si>
   <si>
     <t xml:space="preserve">CdOverdue</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">逾期新增減少原因檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年05月21日 15:21:04</t>
+    <t xml:space="preserve">2022年01月20日 11:43:12</t>
   </si>
   <si>
     <t xml:space="preserve">CdPerformance</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">業績件數及金額核算標準設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月18日 17:41:18</t>
+    <t xml:space="preserve">2022年01月20日 15:06:54</t>
   </si>
   <si>
     <t xml:space="preserve">CdPfParms</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">業績特殊參數設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月16日 20:07:39</t>
+    <t xml:space="preserve">2022年01月20日 11:44:02</t>
   </si>
   <si>
     <t xml:space="preserve">CdReport</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">主管理由檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年07月16日 10:58:39</t>
+    <t xml:space="preserve">2022年01月20日 11:44:16</t>
   </si>
   <si>
     <t xml:space="preserve">CdSyndFee</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">批次工作明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月28日 19:27:39</t>
+    <t xml:space="preserve">2022年01月20日 11:44:50</t>
   </si>
   <si>
     <t xml:space="preserve">JobMain</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">批次工作主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月12日 12:21:51</t>
+    <t xml:space="preserve">2022年01月20日 11:45:02</t>
   </si>
   <si>
     <t xml:space="preserve">StgCdEmp</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">員工資料中介檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年05月12日 13:09:30</t>
+    <t xml:space="preserve">2022年01月20日 11:45:19</t>
   </si>
   <si>
     <t xml:space="preserve">SystemParas</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">系統參數設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月06日 14:46:38</t>
+    <t xml:space="preserve">2022年01月20日 15:06:37</t>
   </si>
   <si>
     <t xml:space="preserve">L7-介接外部系統</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">信用評等檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年06月22日 10:57:23</t>
+    <t xml:space="preserve">2022年01月20日 11:48:50</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerAmlRating</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">客戶AML評級資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月29日 17:27:38</t>
+    <t xml:space="preserve">2022年01月20日 11:49:08</t>
   </si>
   <si>
     <t xml:space="preserve">DataInputRecord</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">違約損失率檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月15日 16:30:48</t>
+    <t xml:space="preserve">2022年01月20日 11:52:30</t>
   </si>
   <si>
     <t xml:space="preserve">Ias39Loan34Data</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">IAS39放款34號公報資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月23日 18:20:22</t>
+    <t xml:space="preserve">2022年01月20日 11:53:34</t>
   </si>
   <si>
     <t xml:space="preserve">Ias39LoanCommit</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">特殊客觀減損狀況檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月03日 12:24:13</t>
+    <t xml:space="preserve">2022年01月20日 11:54:28</t>
   </si>
   <si>
     <t xml:space="preserve">Ifrs9FacData</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">IFRS9額度資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月01日 15:38:33</t>
+    <t xml:space="preserve">2022年01月20日 11:55:20</t>
   </si>
   <si>
     <t xml:space="preserve">Ifrs9LoanData</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">IFRS9撥款資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月13日 19:15:13</t>
+    <t xml:space="preserve">2022年01月20日 11:56:19</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Ap</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">IFRS9欄位清單1</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月13日 19:17:01</t>
+    <t xml:space="preserve">2022年01月20日 11:57:53</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Bp</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">IFRS9欄位清單2</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月02日 10:10:40</t>
+    <t xml:space="preserve">2022年01月20日 11:58:13</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Cp</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">IFRS9欄位清單3</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月17日 10:30:32</t>
+    <t xml:space="preserve">2022年01月20日 11:58:38</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Dp</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">IFRS9欄位清單4</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月13日 19:17:23</t>
+    <t xml:space="preserve">2022年01月20日 11:59:26</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Fp</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">IFRS9欄位清單6</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月02日 10:11:59</t>
+    <t xml:space="preserve">2022年01月20日 11:59:39</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Gp</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">IFRS9欄位清單7</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月02日 10:12:14</t>
+    <t xml:space="preserve">2022年01月20日 12:01:23</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Hp</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">IFRS9欄位清單8</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月02日 10:12:34</t>
+    <t xml:space="preserve">2022年01月20日 12:00:35</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Ip</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">IFRS9欄位清單9</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月09日 18:18:55</t>
+    <t xml:space="preserve">2022年01月20日 12:02:40</t>
   </si>
   <si>
     <t xml:space="preserve">LoanIfrs9Jp</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">聯徵授信額度資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月28日 19:18:04</t>
+    <t xml:space="preserve">2022年01月20日 12:04:27</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB085</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">聯徵帳號轉換資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月28日 23:50:19</t>
+    <t xml:space="preserve">2022年01月20日 12:04:41</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB090</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">擔保品關聯檔資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月29日 11:12:57</t>
+    <t xml:space="preserve">2022年01月20日 12:04:49</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB091</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">聯徵不動產擔保品明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月23日 12:14:19</t>
+    <t xml:space="preserve">2022年01月20日 12:05:17</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB093</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">聯徵動產及貴重物品擔保品明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月30日 15:00:16</t>
+    <t xml:space="preserve">2022年01月20日 12:05:58</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB094</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">聯徵股票擔保品明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月30日 22:24:55</t>
+    <t xml:space="preserve">2022年01月20日 12:06:22</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB095</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">聯徵不動產擔保品明細-建號附加檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月23日 11:44:49</t>
+    <t xml:space="preserve">2022年01月20日 12:06:45</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB096</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">聯徵不動產擔保品明細-地號附加檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月23日 14:13:46</t>
+    <t xml:space="preserve">2022年01月20日 12:07:06</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB201</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">聯徵授信餘額月報資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月13日 16:24:52</t>
+    <t xml:space="preserve">2022年01月20日 15:06:19</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB204</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">聯徵授信餘額日報檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月23日 11:00:54</t>
+    <t xml:space="preserve">2022年01月20日 12:21:17</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB207</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">聯徵授信戶基本資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月20日 16:37:45</t>
+    <t xml:space="preserve">2022年01月20日 12:22:26</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB211</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">聯徵每日授信餘額變動資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月28日 02:11:16</t>
+    <t xml:space="preserve">2022年01月20日 12:24:24</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB680</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">貸款餘額扣除擔保品鑑估值之金額資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月30日 11:18:43</t>
+    <t xml:space="preserve">2022年01月20日 12:24:41</t>
   </si>
   <si>
     <t xml:space="preserve">JcicMonthlyLoanData</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">聯徵放款月報資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月26日 12:00:45</t>
+    <t xml:space="preserve">2022年01月20日 12:29:04</t>
   </si>
   <si>
     <t xml:space="preserve">JcicRel</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">聯徵授信「同一關係企業及集團企業」資料報送檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月10日 16:46:14</t>
+    <t xml:space="preserve">2022年01月20日 12:29:21</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ040</t>
@@ -1982,13 +1982,13 @@
     <t xml:space="preserve">前置協商受理申請暨請求回報償權通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:44:56</t>
+    <t xml:space="preserve">2022年01月20日 12:29:37</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ040Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 10:57:26</t>
+    <t xml:space="preserve">2022年01月20日 12:29:56</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ041</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">協商開始暨停催通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:44:37</t>
+    <t xml:space="preserve">2022年01月20日 12:30:10</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ041Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:01:10</t>
+    <t xml:space="preserve">2022年01月20日 12:30:21</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ042</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">回報無擔保債權金額資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月22日 18:50:26</t>
+    <t xml:space="preserve">2022年01月20日 12:30:32</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ042Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:06:56</t>
+    <t xml:space="preserve">2022年01月20日 12:30:39</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ043</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">回報有擔保債權金額資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:55:05</t>
+    <t xml:space="preserve">2022年01月20日 12:30:53</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ043Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:09:42</t>
+    <t xml:space="preserve">2022年01月20日 12:31:04</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ044</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">請求同意債務清償方案通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月23日 17:59:49</t>
+    <t xml:space="preserve">2022年01月20日 12:31:28</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ044Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:12:26</t>
+    <t xml:space="preserve">2022年01月20日 12:31:44</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ045</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">回報是否同意債務清償方案資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:43:18</t>
+    <t xml:space="preserve">2022年01月20日 12:31:53</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ045Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:16:30</t>
+    <t xml:space="preserve">2022年01月20日 12:32:00</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ046</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">結案通知資料檔案格式</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月13日 19:28:51</t>
+    <t xml:space="preserve">2022年01月20日 12:32:12</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ046Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月31日 09:20:20</t>
+    <t xml:space="preserve">2022年01月20日 12:32:23</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ047</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">金融機構無擔保債務協議資料檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:42:09</t>
+    <t xml:space="preserve">2022年01月20日 12:32:44</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ047Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:22:43</t>
+    <t xml:space="preserve">2022年01月20日 12:33:02</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ048</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">債務人基本資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:41:33</t>
+    <t xml:space="preserve">2022年01月20日 12:33:14</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ048Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:26:27</t>
+    <t xml:space="preserve">2022年01月20日 12:33:24</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ049</t>
@@ -2117,13 +2117,13 @@
     <t xml:space="preserve">債務清償方案法院認可資料檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:41:14</t>
+    <t xml:space="preserve">2022年01月20日 12:33:38</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ049Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:28:57</t>
+    <t xml:space="preserve">2022年01月20日 12:33:49</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ050</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">債務人繳款資料檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:40:44</t>
+    <t xml:space="preserve">2022年01月20日 12:34:12</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ050Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月16日 15:31:23</t>
+    <t xml:space="preserve">2022年01月20日 12:34:21</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ051</t>
@@ -2147,13 +2147,13 @@
     <t xml:space="preserve">延期繳款（喘息期）資料檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:40:10</t>
+    <t xml:space="preserve">2022年01月20日 12:34:30</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ051Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:36:48</t>
+    <t xml:space="preserve">2022年01月20日 12:34:40</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ052</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">前置協商相關資料報送例外處理</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月04日 11:54:20</t>
+    <t xml:space="preserve">2022年01月20日 12:34:48</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ052Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:39:07</t>
+    <t xml:space="preserve">2022年01月20日 12:34:54</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ053</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">同意報送例外處理檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月18日 09:42:54</t>
+    <t xml:space="preserve">2022年01月20日 12:35:03</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ053Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:41:37</t>
+    <t xml:space="preserve">2022年01月20日 12:35:14</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ054</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">單獨全數受清償資料檔案</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月24日 18:14:18</t>
+    <t xml:space="preserve">2022年01月20日 12:35:28</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ054Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年08月24日 16:47:10</t>
+    <t xml:space="preserve">2022年01月20日 12:35:42</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ055</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">消債條例更生案件資料報送</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:38:18</t>
+    <t xml:space="preserve">2022年01月20日 12:36:16</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ055Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:49:48</t>
+    <t xml:space="preserve">2022年01月20日 12:36:26</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ056</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">清算案件資料報送</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:37:50</t>
+    <t xml:space="preserve">2022年01月20日 12:36:39</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ056Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:53:23</t>
+    <t xml:space="preserve">2022年01月20日 12:36:48</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ060</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月24日 18:14:20</t>
+    <t xml:space="preserve">2022年01月20日 12:36:53</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ060Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 11:57:33</t>
+    <t xml:space="preserve">2022年01月20日 12:36:58</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ061</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">回報協商剩餘債權金額資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:34:46</t>
+    <t xml:space="preserve">2022年01月20日 12:37:04</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ061Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 12:00:12</t>
+    <t xml:space="preserve">2022年01月20日 12:37:08</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ062</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">金融機構無擔保債務變更還款條件協議資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月24日 18:14:17</t>
+    <t xml:space="preserve">2022年01月20日 12:37:16</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ062Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:26:03</t>
+    <t xml:space="preserve">2022年01月20日 12:37:21</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ063</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">變更還款方案結案通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:33:54</t>
+    <t xml:space="preserve">2022年01月20日 12:37:33</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ063Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:29:05</t>
+    <t xml:space="preserve">2022年01月20日 12:37:43</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ440</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">前置調解受理申請暨請求回報債權通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:32:49</t>
+    <t xml:space="preserve">2022年01月20日 12:37:59</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ440Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:31:39</t>
+    <t xml:space="preserve">2022年01月20日 12:38:05</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ442</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">前置調解回報無擔保債權金額資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:32:20</t>
+    <t xml:space="preserve">2022年01月20日 12:38:12</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ442Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:34:14</t>
+    <t xml:space="preserve">2022年01月20日 12:38:18</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ443</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">前置調解回報有擔保債權金額資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:31:55</t>
+    <t xml:space="preserve">2022年01月20日 12:38:29</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ443Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:37:52</t>
+    <t xml:space="preserve">2022年01月20日 12:38:35</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ444</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">前置調解債務人基本資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:29:21</t>
+    <t xml:space="preserve">2022年01月20日 12:38:43</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ444Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:40:12</t>
+    <t xml:space="preserve">2022年01月20日 12:38:50</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ446</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">前置調解結案通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:28:58</t>
+    <t xml:space="preserve">2022年01月20日 12:38:59</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ446Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:44:41</t>
+    <t xml:space="preserve">2022年01月20日 12:39:08</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ447</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">前置調解金融機構無擔保債務協議資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:27:33</t>
+    <t xml:space="preserve">2022年01月20日 12:39:17</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ447Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:46:49</t>
+    <t xml:space="preserve">2022年01月20日 12:39:24</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ448</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">前置調解無擔保債務還款分配資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:27:11</t>
+    <t xml:space="preserve">2022年01月20日 12:39:32</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ448Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:49:21</t>
+    <t xml:space="preserve">2022年01月20日 12:39:39</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ450</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">前置調解債務人繳款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:25:16</t>
+    <t xml:space="preserve">2022年01月20日 12:39:47</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ450Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:51:35</t>
+    <t xml:space="preserve">2022年01月20日 12:39:53</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ451</t>
@@ -2414,13 +2414,13 @@
     <t xml:space="preserve">前置調解延期繳款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月17日 17:24:52</t>
+    <t xml:space="preserve">2022年01月20日 12:40:01</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ451Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:54:13</t>
+    <t xml:space="preserve">2022年01月20日 12:40:08</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ454</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">前置調解單獨全數受清償資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月07日 15:23:53</t>
+    <t xml:space="preserve">2022年01月20日 12:40:19</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ454Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:56:26</t>
+    <t xml:space="preserve">2022年01月20日 12:40:40</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ570</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">受理更生款項統一收付通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 10:31:07</t>
+    <t xml:space="preserve">2022年01月20日 12:40:29</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ570Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 13:59:08</t>
+    <t xml:space="preserve">2022年01月20日 12:40:48</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ571</t>
@@ -2459,13 +2459,13 @@
     <t xml:space="preserve">更生款項統一收付回報債權資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 10:08:20</t>
+    <t xml:space="preserve">2022年01月20日 12:41:14</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ571Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 14:01:23</t>
+    <t xml:space="preserve">2022年01月20日 12:41:09</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ572</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">受理更生款項統一收付款項分配表資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月25日 16:36:15</t>
+    <t xml:space="preserve">2022年01月20日 12:41:21</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ572Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 14:05:20</t>
+    <t xml:space="preserve">2022年01月20日 12:41:26</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ573</t>
@@ -2489,13 +2489,13 @@
     <t xml:space="preserve">更生債務人繳款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 10:30:06</t>
+    <t xml:space="preserve">2022年01月20日 12:41:32</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ573Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 14:07:20</t>
+    <t xml:space="preserve">2022年01月20日 12:41:37</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ574</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">更生款項統一收付結案通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 10:29:55</t>
+    <t xml:space="preserve">2022年01月20日 12:41:44</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ574Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 14:09:33</t>
+    <t xml:space="preserve">2022年01月20日 12:41:50</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ575</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">更生債權金額異動通知資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年10月08日 10:29:44</t>
+    <t xml:space="preserve">2022年01月20日 12:41:57</t>
   </si>
   <si>
     <t xml:space="preserve">JcicZ575Log</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月27日 14:09:47</t>
+    <t xml:space="preserve">2022年01月20日 12:42:02</t>
   </si>
   <si>
     <t xml:space="preserve">MlaundryChkDtl</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">疑似洗錢交易合理性明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月08日 10:46:12</t>
+    <t xml:space="preserve">2022年01月20日 12:42:14</t>
   </si>
   <si>
     <t xml:space="preserve">MlaundryParas</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">疑似洗錢樣態條件設定檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月02日 16:39:22</t>
+    <t xml:space="preserve">2022年01月20日 12:42:37</t>
   </si>
   <si>
     <t xml:space="preserve">MlaundryRecord</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">每日放款餘額檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年04月21日 17:32:53</t>
+    <t xml:space="preserve">2022年01月20日 12:43:16</t>
   </si>
   <si>
     <t xml:space="preserve">GuildBuilders</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">額度月報工作檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月05日 10:07:06</t>
+    <t xml:space="preserve">2022年01月20日 12:44:26</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyLM003</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">撥款還款金額比較月報工作檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月05日 10:09:12</t>
+    <t xml:space="preserve">2022年01月20日 12:44:40</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyLM028</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">LM052資產分類表</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月30日 16:50:47</t>
+    <t xml:space="preserve">2022年01月20日 12:45:29</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyLM052LoanAsset</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">LM052放款資產表</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月30日 16:51:09</t>
+    <t xml:space="preserve">2022年01月20日 12:45:39</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyLM052Loss</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">LM052逾期分類表</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年09月30日 16:51:29</t>
+    <t xml:space="preserve">2022年01月20日 12:46:03</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyLoanBal</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">每月放款餘額檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月05日 10:09:33</t>
+    <t xml:space="preserve">2022年01月20日 12:46:23</t>
   </si>
   <si>
     <t xml:space="preserve">RptJcic</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">傳票媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月23日 17:57:02</t>
+    <t xml:space="preserve">2022年01月20日 12:46:45</t>
   </si>
   <si>
     <t xml:space="preserve">SlipMedia2022</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">傳票媒體檔2022年格式</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年06月23日 10:09:58</t>
+    <t xml:space="preserve">2022年01月20日 12:46:57</t>
   </si>
   <si>
     <t xml:space="preserve">UspErrorLog</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">預存程序錯誤記錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月06日 17:35:23</t>
+    <t xml:space="preserve">2022年01月20日 12:47:10</t>
   </si>
   <si>
     <t xml:space="preserve">YearlyHouseLoanInt</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">每年房屋擔保借款繳息工作檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月01日 10:25:19</t>
+    <t xml:space="preserve">2022年01月20日 12:47:19</t>
   </si>
   <si>
     <t xml:space="preserve">XX-系統</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">聯徵授信餘額月報資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 15:06:19</t>
+    <t xml:space="preserve">2022年01月21日 11:00:51</t>
   </si>
   <si>
     <t xml:space="preserve">JcicB204</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -302,7 +302,7 @@
     <t xml:space="preserve">擔保品他項權利檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月17日 11:30:07</t>
+    <t xml:space="preserve">2022年01月21日 14:32:13</t>
   </si>
   <si>
     <t xml:space="preserve">ClOwnerRelation</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">額度主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 15:12:42</t>
+    <t xml:space="preserve">2022年01月21日 15:00:35</t>
   </si>
   <si>
     <t xml:space="preserve">FacProd</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -677,7 +677,7 @@
     <t xml:space="preserve">整批入帳明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 15:11:20</t>
+    <t xml:space="preserve">2022年01月21日 16:42:45</t>
   </si>
   <si>
     <t xml:space="preserve">BatxHead</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">員工扣薪日程表</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年07月29日 18:28:44</t>
+    <t xml:space="preserve">2022年01月21日 16:55:08</t>
   </si>
   <si>
     <t xml:space="preserve">InsuComm</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -794,7 +794,7 @@
     <t xml:space="preserve">郵局扣款媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:07:17</t>
+    <t xml:space="preserve">2022年01月21日 17:31:20</t>
   </si>
   <si>
     <t xml:space="preserve">RepayActChangeLog</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">介紹人業績明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月13日 10:19:23</t>
+    <t xml:space="preserve">2022年01月24日 11:14:15</t>
   </si>
   <si>
     <t xml:space="preserve">HlThreeLaqhcp</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">會計業務關帳控制檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:31:18</t>
+    <t xml:space="preserve">2022年01月21日 17:25:28</t>
   </si>
   <si>
     <t xml:space="preserve">AcDetail</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">編號編碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 15:07:19</t>
+    <t xml:space="preserve">2022年01月24日 10:38:10</t>
   </si>
   <si>
     <t xml:space="preserve">CdGuarantor</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">客戶聯絡電話檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:18:49</t>
+    <t xml:space="preserve">2022年01月24日 11:36:19</t>
   </si>
   <si>
     <t xml:space="preserve">FinReportCashFlow</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">擔保品-土地所有權人檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:24:19</t>
+    <t xml:space="preserve">2022年01月24日 11:33:21</t>
   </si>
   <si>
     <t xml:space="preserve">ClLandReason</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">擔保品-土地修改原因檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:24:44</t>
+    <t xml:space="preserve">2022年01月24日 11:33:16</t>
   </si>
   <si>
     <t xml:space="preserve">ClMain</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">員工扣薪媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:03:12</t>
+    <t xml:space="preserve">2022年01月24日 11:37:08</t>
   </si>
   <si>
     <t xml:space="preserve">EmpDeductSchedule</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">員工扣薪日程表</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月21日 16:55:08</t>
+    <t xml:space="preserve">2022年01月24日 11:37:33</t>
   </si>
   <si>
     <t xml:space="preserve">InsuComm</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">債協客戶請求資料</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:26:29</t>
+    <t xml:space="preserve">2022年01月24日 11:38:22</t>
   </si>
   <si>
     <t xml:space="preserve">NegTrans</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">會計帳務明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:32:37</t>
+    <t xml:space="preserve">2022年01月24日 11:34:51</t>
   </si>
   <si>
     <t xml:space="preserve">AcLoanInt</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">會計銷帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:34:23</t>
+    <t xml:space="preserve">2022年01月24日 11:35:16</t>
   </si>
   <si>
     <t xml:space="preserve">CdAcBook</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">員工資料檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:38:42</t>
+    <t xml:space="preserve">2022年01月24日 11:35:44</t>
   </si>
   <si>
     <t xml:space="preserve">CdGseq</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">聯徵稽查產品</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年10月28日 17:24:28</t>
+    <t xml:space="preserve">2022年01月24日 11:38:57</t>
   </si>
   <si>
     <t xml:space="preserve">TbJcicZZ50</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">主管授權紀錄</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月15日 17:00:49</t>
+    <t xml:space="preserve">2022年01月24日 14:36:36</t>
   </si>
   <si>
     <t xml:space="preserve">TxBizDate</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">批次發動交易紀錄</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月28日 19:27:36</t>
+    <t xml:space="preserve">2022年01月24日 12:34:04</t>
   </si>
   <si>
     <t xml:space="preserve">TxCurr</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">客戶聯絡電話檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月24日 11:36:19</t>
+    <t xml:space="preserve">2022年01月24日 18:06:58</t>
   </si>
   <si>
     <t xml:space="preserve">FinReportCashFlow</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">共用代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:38:01</t>
+    <t xml:space="preserve">2022年01月25日 09:47:10</t>
   </si>
   <si>
     <t xml:space="preserve">CdEmp</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">主管授權紀錄</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月24日 14:36:36</t>
+    <t xml:space="preserve">2022年01月24日 19:54:15</t>
   </si>
   <si>
     <t xml:space="preserve">TxBizDate</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">交易記錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月15日 09:16:15</t>
+    <t xml:space="preserve">2022年01月25日 15:47:26</t>
   </si>
   <si>
     <t xml:space="preserve">TxTeller</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">交易記錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月25日 15:47:26</t>
+    <t xml:space="preserve">2022年01月25日 16:18:30</t>
   </si>
   <si>
     <t xml:space="preserve">TxTeller</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -557,7 +557,7 @@
     <t xml:space="preserve">未齊件管理檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:44:37</t>
+    <t xml:space="preserve">2022年01月26日 09:37:17</t>
   </si>
   <si>
     <t xml:space="preserve">LoanOverdue</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">ACH扣款媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:57:04</t>
+    <t xml:space="preserve">2022年01月26日 09:13:01</t>
   </si>
   <si>
     <t xml:space="preserve">BankAuthAct</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">會計銷帳檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月24日 11:35:16</t>
+    <t xml:space="preserve">2022年01月26日 11:21:58</t>
   </si>
   <si>
     <t xml:space="preserve">CdAcBook</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -623,7 +623,7 @@
     <t xml:space="preserve">ACH扣款媒體檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月26日 09:13:01</t>
+    <t xml:space="preserve">2022年01月27日 11:23:48</t>
   </si>
   <si>
     <t xml:space="preserve">BankAuthAct</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">使用者檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年12月01日 17:20:37</t>
+    <t xml:space="preserve">2022年01月26日 17:24:05</t>
   </si>
   <si>
     <t xml:space="preserve">TxTellerAuth</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -374,7 +374,7 @@
     <t xml:space="preserve">清償作業檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:36:21</t>
+    <t xml:space="preserve">2022年02月08日 10:23:28</t>
   </si>
   <si>
     <t xml:space="preserve">FacMain</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">額度主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月21日 15:00:35</t>
+    <t xml:space="preserve">2022年02月09日 09:24:25</t>
   </si>
   <si>
     <t xml:space="preserve">FacProd</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">整批入帳明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月21日 16:42:45</t>
+    <t xml:space="preserve">2022年02月08日 18:48:37</t>
   </si>
   <si>
     <t xml:space="preserve">BatxHead</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">法催紀錄清單檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:20:01</t>
+    <t xml:space="preserve">2022年02月08日 19:26:06</t>
   </si>
   <si>
     <t xml:space="preserve">CollListTmp</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">共用代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月25日 09:47:10</t>
+    <t xml:space="preserve">2022年02月09日 13:42:09</t>
   </si>
   <si>
     <t xml:space="preserve">CdEmp</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">ApLog敏感資料查詢紀錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年08月31日 11:32:48</t>
+    <t xml:space="preserve">2022年02月09日 13:10:19</t>
   </si>
   <si>
     <t xml:space="preserve">TxApLogList</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">共用代碼檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月09日 13:42:09</t>
+    <t xml:space="preserve">2022年02月09日 13:53:03</t>
   </si>
   <si>
     <t xml:space="preserve">CdEmp</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">違約損失率檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:52:30</t>
+    <t xml:space="preserve">2022年02月09日 17:51:58</t>
   </si>
   <si>
     <t xml:space="preserve">Ias39Loan34Data</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">傳票媒體檔2022年格式</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 12:46:57</t>
+    <t xml:space="preserve">2022年02月09日 18:42:26</t>
   </si>
   <si>
     <t xml:space="preserve">UspErrorLog</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">資料變更紀錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2021年11月30日 22:11:01</t>
+    <t xml:space="preserve">2022年02月11日 14:22:47</t>
   </si>
   <si>
     <t xml:space="preserve">TxErrCode</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -833,7 +833,7 @@
     <t xml:space="preserve">法催紀錄清單檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月14日 15:54:31</t>
+    <t xml:space="preserve">2022年02月14日 18:02:31</t>
   </si>
   <si>
     <t xml:space="preserve">CollListTmp</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">會計帳務明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月24日 11:34:51</t>
+    <t xml:space="preserve">2022年02月15日 09:09:04</t>
   </si>
   <si>
     <t xml:space="preserve">AcLoanInt</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">批次工作主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 11:45:02</t>
+    <t xml:space="preserve">2022年02月15日 09:29:32</t>
   </si>
   <si>
     <t xml:space="preserve">StgCdEmp</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">錯誤代碼</t>
   </si>
   <si>
-    <t xml:space="preserve">2020年07月31日 17:09:45</t>
+    <t xml:space="preserve">2022年02月15日 11:25:06</t>
   </si>
   <si>
     <t xml:space="preserve">TxFile</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">錯誤代碼</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月15日 11:25:06</t>
+    <t xml:space="preserve">2022年02月15日 11:27:12</t>
   </si>
   <si>
     <t xml:space="preserve">TxFile</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">傳票媒體檔2022年格式</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月09日 18:42:26</t>
+    <t xml:space="preserve">2022年02月16日 09:32:50</t>
   </si>
   <si>
     <t xml:space="preserve">UspErrorLog</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">資料變更紀錄檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月11日 14:22:47</t>
+    <t xml:space="preserve">2022年02月17日 09:48:20</t>
   </si>
   <si>
     <t xml:space="preserve">TxErrCode</t>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/GenTable總表.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">客戶資料主檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月20日 10:39:54</t>
+    <t xml:space="preserve">2022年02月17日 15:22:33</t>
   </si>
   <si>
     <t xml:space="preserve">CustNotice</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">整批入帳明細檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年02月08日 18:48:37</t>
+    <t xml:space="preserve">2022年02月17日 12:15:35</t>
   </si>
   <si>
     <t xml:space="preserve">BatxHead</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">使用者檔</t>
   </si>
   <si>
-    <t xml:space="preserve">2022年01月26日 17:24:05</t>
+    <t xml:space="preserve">2022年02月17日 15:05:28</t>
   </si>
   <si>
     <t xml:space="preserve">TxTellerAuth</t>
